--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>User Story</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>As a user, I can delete the current user and start over from scratch.</t>
+  </si>
+  <si>
+    <t>As a student, I will be able to add a semester to my course history</t>
+  </si>
+  <si>
+    <t>As a user, I will be able to add classes to each semester</t>
+  </si>
+  <si>
+    <t>As a user, I will be able to add all necessary course information and final grades to calculate overall GPA</t>
+  </si>
+  <si>
+    <t>As a user, I will have the ability to add grades for each class and specify the weight</t>
+  </si>
+  <si>
+    <t>As a student, I will be able to predict my final grade based on potential grades I input and change based on different outcomes.</t>
   </si>
 </sst>
 </file>
@@ -65,7 +80,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,13 +101,69 @@
       <color theme="1"/>
       <name val="Liberation Sans"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,7 +175,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center"/>
@@ -114,20 +185,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
+    <cellStyle name="Bad" xfId="6" builtinId="27"/>
+    <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Heading" xfId="1"/>
     <cellStyle name="Heading1" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -410,279 +491,475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="28.75" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" ht="34.5" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="3">
         <v>43146</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="3">
         <v>43147</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="3">
         <v>43148</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="3">
         <v>43149</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="3"/>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="3"/>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.25">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="14.25">
-      <c r="A7" s="3" t="s">
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25">
-      <c r="A8" s="3"/>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.25">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.25">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.25">
-      <c r="A12" s="3" t="s">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>8</v>
       </c>
-      <c r="D12" s="2">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25">
-      <c r="A13" s="3"/>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.25">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.25">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.25">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.25">
-      <c r="A17" s="3" t="s">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="2">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.25">
-      <c r="A18" s="3"/>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.25">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.25">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.25">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.25">
-      <c r="A22" s="3" t="s">
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="2">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
         <v>2</v>
       </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.25">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" ht="14.25">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" ht="14.25">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" ht="14.25">
-      <c r="A26" s="3"/>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="39" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7">
+        <v>43154</v>
+      </c>
+      <c r="D27" s="7">
+        <v>43157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2"/>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>15</v>
+      </c>
+      <c r="D34" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2"/>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>15</v>
+      </c>
+      <c r="D39" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2"/>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>15</v>
+      </c>
+      <c r="D44" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2"/>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1">
+        <v>15</v>
+      </c>
+      <c r="D49" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2"/>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A48"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A16"/>
@@ -690,6 +967,7 @@
     <mergeCell ref="A22:A26"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\Gradebook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
@@ -193,9 +193,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -205,15 +202,18 @@
     <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
     <cellStyle name="Good" xfId="5" builtinId="26"/>
-    <cellStyle name="Heading" xfId="1"/>
-    <cellStyle name="Heading1" xfId="2"/>
+    <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="3"/>
-    <cellStyle name="Result2" xfId="4"/>
+    <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -490,11 +490,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -507,27 +507,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>43146</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>43147</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>43148</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>43149</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -547,7 +547,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
+      <c r="A3" s="7"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -565,7 +565,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -583,13 +583,13 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
+      <c r="A5" s="7"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
+      <c r="A6" s="7"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -609,7 +609,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -627,16 +627,16 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
+      <c r="A9" s="7"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
+      <c r="A10" s="7"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
+      <c r="A11" s="7"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
@@ -656,7 +656,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2"/>
+      <c r="A13" s="7"/>
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -674,16 +674,16 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
+      <c r="A14" s="7"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2"/>
+      <c r="A15" s="7"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2"/>
+      <c r="A16" s="7"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
@@ -703,7 +703,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2"/>
+      <c r="A18" s="7"/>
       <c r="B18" t="s">
         <v>7</v>
       </c>
@@ -721,16 +721,16 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2"/>
+      <c r="A19" s="7"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="2"/>
+      <c r="A20" s="7"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2"/>
+      <c r="A21" s="7"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
@@ -750,33 +750,36 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="2"/>
+      <c r="A23" s="7"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="2"/>
+      <c r="A24" s="7"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="2"/>
+      <c r="A25" s="7"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="2"/>
+      <c r="A26" s="7"/>
     </row>
     <row r="27" spans="1:6" ht="39" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>43154</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>43157</v>
       </c>
+      <c r="E27" s="6">
+        <v>43160</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B28" t="s">
@@ -788,9 +791,12 @@
       <c r="D28" s="1">
         <v>11</v>
       </c>
+      <c r="E28" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="2"/>
+      <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>4</v>
       </c>
@@ -800,21 +806,24 @@
       <c r="D29" s="1">
         <v>3</v>
       </c>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="2"/>
+      <c r="A30" s="7"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="2"/>
+      <c r="A31" s="7"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B34" t="s">
@@ -826,9 +835,12 @@
       <c r="D34" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2"/>
+      <c r="E34" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="7"/>
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -838,18 +850,21 @@
       <c r="D35" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
+      <c r="E35" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B39" t="s">
@@ -861,9 +876,12 @@
       <c r="D39" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="2"/>
+      <c r="E39" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="7"/>
       <c r="B40" t="s">
         <v>4</v>
       </c>
@@ -873,18 +891,21 @@
       <c r="D40" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
+      <c r="E40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B44" t="s">
@@ -896,9 +917,12 @@
       <c r="D44" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2"/>
+      <c r="E44" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="7"/>
       <c r="B45" t="s">
         <v>4</v>
       </c>
@@ -908,18 +932,21 @@
       <c r="D45" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2" t="s">
+      <c r="E45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B49" t="s">
@@ -931,9 +958,12 @@
       <c r="D49" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2"/>
+      <c r="E49" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="7"/>
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -943,28 +973,31 @@
       <c r="D50" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2"/>
+      <c r="E50" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="7"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="7"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
@@ -209,11 +209,11 @@
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
     <cellStyle name="Good" xfId="5" builtinId="26"/>
-    <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Heading" xfId="1"/>
+    <cellStyle name="Heading1" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Result" xfId="3"/>
+    <cellStyle name="Result2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -490,11 +490,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -777,6 +777,9 @@
       <c r="E27" s="6">
         <v>43160</v>
       </c>
+      <c r="F27" s="6">
+        <v>43167</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="7" t="s">
@@ -794,6 +797,9 @@
       <c r="E28" s="1">
         <v>10</v>
       </c>
+      <c r="F28" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="7"/>
@@ -809,6 +815,9 @@
       <c r="E29" s="1">
         <v>3</v>
       </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="7"/>
@@ -819,10 +828,10 @@
     <row r="32" spans="1:6">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -838,8 +847,11 @@
       <c r="E34" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="7"/>
       <c r="B35" t="s">
         <v>4</v>
@@ -853,17 +865,20 @@
       <c r="E35" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" s="7" t="s">
         <v>13</v>
       </c>
@@ -879,8 +894,11 @@
       <c r="E39" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="7"/>
       <c r="B40" t="s">
         <v>4</v>
@@ -894,17 +912,20 @@
       <c r="E40" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" s="7" t="s">
         <v>14</v>
       </c>
@@ -920,8 +941,11 @@
       <c r="E44" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="7"/>
       <c r="B45" t="s">
         <v>4</v>
@@ -935,17 +959,20 @@
       <c r="E45" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" s="7" t="s">
         <v>15</v>
       </c>
@@ -961,8 +988,11 @@
       <c r="E49" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="7"/>
       <c r="B50" t="s">
         <v>4</v>
@@ -976,28 +1006,31 @@
       <c r="E50" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A48"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A44:A48"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\Gradebook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:A38"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -798,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -816,7 +816,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1021,16 +1021,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\Gradebook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -682,7 +682,7 @@
     <row r="16" spans="1:6">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="7" t="s">
         <v>9</v>
       </c>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="7"/>
       <c r="B18" t="s">
         <v>7</v>
@@ -720,16 +720,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" s="7" t="s">
         <v>10</v>
       </c>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="39" customHeight="1">
+    <row r="27" spans="1:7" ht="39" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>0</v>
       </c>
@@ -780,8 +780,11 @@
       <c r="F27" s="6">
         <v>43167</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="6">
+        <v>43167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="7" t="s">
         <v>11</v>
       </c>
@@ -800,8 +803,11 @@
       <c r="F28" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>4</v>
@@ -818,20 +824,27 @@
       <c r="F29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="7"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="7"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="7"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="7"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -850,8 +863,11 @@
       <c r="F34" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="7"/>
       <c r="B35" t="s">
         <v>4</v>
@@ -868,17 +884,23 @@
       <c r="F35" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="7"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="7"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="7"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="7" t="s">
         <v>13</v>
       </c>
@@ -897,8 +919,11 @@
       <c r="F39" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="7"/>
       <c r="B40" t="s">
         <v>4</v>
@@ -915,17 +940,23 @@
       <c r="F40" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="7"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="7"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="7"/>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="7" t="s">
         <v>14</v>
       </c>
@@ -944,8 +975,11 @@
       <c r="F44" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="7"/>
       <c r="B45" t="s">
         <v>4</v>
@@ -962,17 +996,23 @@
       <c r="F45" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="7"/>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="7"/>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="7"/>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="7" t="s">
         <v>15</v>
       </c>
@@ -991,8 +1031,11 @@
       <c r="F49" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="7"/>
       <c r="B50" t="s">
         <v>4</v>
@@ -1009,28 +1052,31 @@
       <c r="F50" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:7">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:7">
       <c r="A53" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A48"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A44:A48"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\Gradebook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -781,7 +781,7 @@
         <v>43167</v>
       </c>
       <c r="G27" s="6">
-        <v>43167</v>
+        <v>43177</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1067,16 +1067,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\Gradebook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD9F2CA-EF92-4624-9850-34F161EE4131}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
@@ -209,11 +210,11 @@
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
     <cellStyle name="Good" xfId="5" builtinId="26"/>
-    <cellStyle name="Heading" xfId="1"/>
-    <cellStyle name="Heading1" xfId="2"/>
+    <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="3"/>
-    <cellStyle name="Result2" xfId="4"/>
+    <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -490,11 +491,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -682,7 +683,7 @@
     <row r="16" spans="1:6">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="7" t="s">
         <v>9</v>
       </c>
@@ -702,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="7"/>
       <c r="B18" t="s">
         <v>7</v>
@@ -720,16 +721,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
         <v>10</v>
       </c>
@@ -749,19 +750,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="39" customHeight="1">
+    <row r="27" spans="1:8" ht="39" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>0</v>
       </c>
@@ -783,8 +784,11 @@
       <c r="G27" s="6">
         <v>43177</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="6">
+        <v>43178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="7" t="s">
         <v>11</v>
       </c>
@@ -806,8 +810,11 @@
       <c r="G28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>4</v>
@@ -827,24 +834,27 @@
       <c r="G29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="7"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" s="7"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="7"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" s="7"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -866,8 +876,11 @@
       <c r="G34" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="7"/>
       <c r="B35" t="s">
         <v>4</v>
@@ -887,20 +900,23 @@
       <c r="G35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="7"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37" s="7"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" s="7"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" s="7" t="s">
         <v>13</v>
       </c>
@@ -922,8 +938,11 @@
       <c r="G39" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="7"/>
       <c r="B40" t="s">
         <v>4</v>
@@ -943,20 +962,23 @@
       <c r="G40" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="7"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42" s="7"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43" s="7"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44" s="7" t="s">
         <v>14</v>
       </c>
@@ -978,8 +1000,11 @@
       <c r="G44" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="7"/>
       <c r="B45" t="s">
         <v>4</v>
@@ -999,20 +1024,23 @@
       <c r="G45" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="7"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="A47" s="7"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8">
       <c r="A48" s="7"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49" s="7" t="s">
         <v>15</v>
       </c>
@@ -1034,8 +1062,11 @@
       <c r="G49" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="7"/>
       <c r="B50" t="s">
         <v>4</v>
@@ -1055,28 +1086,31 @@
       <c r="G50" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A48"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A44:A48"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\Gradebook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD9F2CA-EF92-4624-9850-34F161EE4131}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
@@ -210,11 +209,11 @@
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
     <cellStyle name="Good" xfId="5" builtinId="26"/>
-    <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Heading" xfId="1"/>
+    <cellStyle name="Heading1" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Result" xfId="3"/>
+    <cellStyle name="Result2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -491,11 +490,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -841,18 +840,22 @@
     <row r="30" spans="1:8">
       <c r="A30" s="7"/>
       <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="7"/>
       <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="7"/>
       <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="7"/>
       <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="7" t="s">
@@ -877,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -901,20 +904,23 @@
         <v>1</v>
       </c>
       <c r="H35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="7"/>
       <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="7"/>
       <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="7"/>
       <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7" t="s">
@@ -939,7 +945,7 @@
         <v>13</v>
       </c>
       <c r="H39" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -963,20 +969,23 @@
         <v>5</v>
       </c>
       <c r="H40" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="7"/>
       <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="7"/>
       <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="7"/>
       <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="7" t="s">
@@ -1001,7 +1010,7 @@
         <v>10</v>
       </c>
       <c r="H44" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1025,20 +1034,23 @@
         <v>5</v>
       </c>
       <c r="H45" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="7"/>
       <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="7"/>
       <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="7"/>
       <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="7" t="s">
@@ -1063,7 +1075,7 @@
         <v>15</v>
       </c>
       <c r="H49" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1087,7 +1099,7 @@
         <v>5</v>
       </c>
       <c r="H50" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:8">

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -682,7 +682,7 @@
     <row r="16" spans="1:6">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="7" t="s">
         <v>9</v>
       </c>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="7"/>
       <c r="B18" t="s">
         <v>7</v>
@@ -720,16 +720,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="7" t="s">
         <v>10</v>
       </c>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="39" customHeight="1">
+    <row r="27" spans="1:9" ht="39" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>0</v>
       </c>
@@ -786,8 +786,11 @@
       <c r="H27" s="6">
         <v>43178</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="6">
+        <v>43178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
         <v>11</v>
       </c>
@@ -812,8 +815,11 @@
       <c r="H28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>4</v>
@@ -836,28 +842,35 @@
       <c r="H29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="7"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="7"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="7"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="7"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -882,8 +895,11 @@
       <c r="H34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="7"/>
       <c r="B35" t="s">
         <v>4</v>
@@ -906,23 +922,29 @@
       <c r="H35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="7"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="7"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="7"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="7" t="s">
         <v>13</v>
       </c>
@@ -947,8 +969,11 @@
       <c r="H39" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="7"/>
       <c r="B40" t="s">
         <v>4</v>
@@ -971,23 +996,29 @@
       <c r="H40" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="7"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="7"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="7"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="7" t="s">
         <v>14</v>
       </c>
@@ -1012,8 +1043,11 @@
       <c r="H44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="7"/>
       <c r="B45" t="s">
         <v>4</v>
@@ -1036,23 +1070,29 @@
       <c r="H45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="7"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="7"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="7"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="7" t="s">
         <v>15</v>
       </c>
@@ -1077,8 +1117,11 @@
       <c r="H49" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="7"/>
       <c r="B50" t="s">
         <v>4</v>
@@ -1101,28 +1144,31 @@
       <c r="H50" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:9">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:9">
       <c r="A53" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>User Story</t>
   </si>
@@ -83,7 +83,10 @@
     <t>Restructure code</t>
   </si>
   <si>
-    <t>As a user, I can navigate the user profile menu to check my major, progress, change my major, and go to my semesters menu</t>
+    <t>As a user, I can navigate the user profile menu to go to my major menu, and go to my semesters menu</t>
+  </si>
+  <si>
+    <t>As a user, I can navigate the major menu to see my major, progress, and change my major</t>
   </si>
 </sst>
 </file>
@@ -91,7 +94,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -196,17 +199,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -214,9 +214,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -566,887 +570,937 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62:F63"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.5"/>
     <col min="2" max="2" width="22"/>
-    <col min="3" max="3" width="11.25" style="3"/>
-    <col min="4" max="4" width="9.75" style="3"/>
-    <col min="5" max="5" width="11.375" style="3"/>
-    <col min="6" max="6" width="10.375" style="3"/>
+    <col min="3" max="3" width="11.25" style="2"/>
+    <col min="4" max="4" width="9.75" style="2"/>
+    <col min="5" max="5" width="11.375" style="2"/>
+    <col min="6" max="6" width="10.375" style="2"/>
     <col min="7" max="1025" width="8.875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>43146</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>43147</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>43148</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <v>43149</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+      <c r="A3" s="9"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="9"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>4</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>4</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>4</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="9"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+      <c r="A6" s="9"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="9"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+      <c r="A9" s="9"/>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="9"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+      <c r="A11" s="9"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="9"/>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="3">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+      <c r="A14" s="9"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+      <c r="A15" s="9"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+      <c r="A16" s="9"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>4</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+      <c r="A18" s="9"/>
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>2</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+      <c r="A19" s="9"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+      <c r="A20" s="9"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
+      <c r="A21" s="9"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
         <v>2</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
+      <c r="A23" s="9"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
+      <c r="A24" s="9"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+      <c r="A25" s="9"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
+      <c r="A26" s="9"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
     <row r="27" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>43154</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>43157</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>43160</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>43167</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>43177</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <v>43178</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>43178</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>12</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>11</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>10</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>2</v>
       </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3">
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
+      <c r="A29" s="9"/>
       <c r="B29" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>4</v>
       </c>
-      <c r="D29" s="3">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2">
         <v>1</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
+      <c r="A30" s="9"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
+      <c r="A31" s="9"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
+      <c r="A32" s="9"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
+      <c r="A33" s="9"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="3">
-        <v>15</v>
-      </c>
-      <c r="D34" s="3">
-        <v>15</v>
-      </c>
-      <c r="E34" s="3">
-        <v>15</v>
-      </c>
-      <c r="F34" s="3">
-        <v>15</v>
-      </c>
-      <c r="G34" s="3">
-        <v>3</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
+      <c r="C34" s="2">
+        <v>15</v>
+      </c>
+      <c r="D34" s="2">
+        <v>15</v>
+      </c>
+      <c r="E34" s="2">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2">
+        <v>15</v>
+      </c>
+      <c r="G34" s="2">
+        <v>3</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
+      <c r="A35" s="9"/>
       <c r="B35" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="3">
-        <v>5</v>
-      </c>
-      <c r="D35" s="3">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="C35" s="2">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2">
+        <v>5</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>5</v>
+      </c>
+      <c r="G35" s="2">
         <v>1</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
+      <c r="A36" s="9"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
+      <c r="A37" s="9"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
+      <c r="A38" s="9"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="3">
-        <v>15</v>
-      </c>
-      <c r="D39" s="3">
-        <v>15</v>
-      </c>
-      <c r="E39" s="3">
-        <v>15</v>
-      </c>
-      <c r="F39" s="3">
-        <v>15</v>
-      </c>
-      <c r="G39" s="3">
+      <c r="C39" s="2">
+        <v>15</v>
+      </c>
+      <c r="D39" s="2">
+        <v>15</v>
+      </c>
+      <c r="E39" s="2">
+        <v>15</v>
+      </c>
+      <c r="F39" s="2">
+        <v>15</v>
+      </c>
+      <c r="G39" s="2">
         <v>13</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>8</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
+      <c r="A40" s="9"/>
       <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="3">
-        <v>5</v>
-      </c>
-      <c r="D40" s="3">
-        <v>5</v>
-      </c>
-      <c r="E40" s="3">
-        <v>5</v>
-      </c>
-      <c r="F40" s="3">
-        <v>5</v>
-      </c>
-      <c r="G40" s="3">
-        <v>5</v>
-      </c>
-      <c r="H40" s="3">
-        <v>3</v>
-      </c>
-      <c r="I40" s="3">
+      <c r="C40" s="2">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2">
+        <v>5</v>
+      </c>
+      <c r="F40" s="2">
+        <v>5</v>
+      </c>
+      <c r="G40" s="2">
+        <v>5</v>
+      </c>
+      <c r="H40" s="2">
+        <v>3</v>
+      </c>
+      <c r="I40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
+      <c r="A41" s="9"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
+      <c r="A42" s="9"/>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
+      <c r="A43" s="9"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="3">
-        <v>15</v>
-      </c>
-      <c r="D44" s="3">
-        <v>15</v>
-      </c>
-      <c r="E44" s="3">
-        <v>15</v>
-      </c>
-      <c r="F44" s="3">
-        <v>15</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="C44" s="2">
+        <v>15</v>
+      </c>
+      <c r="D44" s="2">
+        <v>15</v>
+      </c>
+      <c r="E44" s="2">
+        <v>15</v>
+      </c>
+      <c r="F44" s="2">
+        <v>15</v>
+      </c>
+      <c r="G44" s="2">
         <v>10</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
+      <c r="A45" s="9"/>
       <c r="B45" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="3">
-        <v>5</v>
-      </c>
-      <c r="D45" s="3">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="C45" s="2">
+        <v>5</v>
+      </c>
+      <c r="D45" s="2">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2">
+        <v>5</v>
+      </c>
+      <c r="F45" s="2">
+        <v>5</v>
+      </c>
+      <c r="G45" s="2">
+        <v>5</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
+      <c r="A46" s="9"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
+      <c r="A47" s="9"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
+      <c r="A48" s="9"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="3">
-        <v>15</v>
-      </c>
-      <c r="D49" s="3">
-        <v>15</v>
-      </c>
-      <c r="E49" s="3">
-        <v>15</v>
-      </c>
-      <c r="F49" s="3">
-        <v>15</v>
-      </c>
-      <c r="G49" s="3">
-        <v>15</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="C49" s="2">
+        <v>15</v>
+      </c>
+      <c r="D49" s="2">
+        <v>15</v>
+      </c>
+      <c r="E49" s="2">
+        <v>15</v>
+      </c>
+      <c r="F49" s="2">
+        <v>15</v>
+      </c>
+      <c r="G49" s="2">
+        <v>15</v>
+      </c>
+      <c r="H49" s="2">
         <v>11</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
+      <c r="A50" s="9"/>
       <c r="B50" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="3">
-        <v>5</v>
-      </c>
-      <c r="D50" s="3">
-        <v>5</v>
-      </c>
-      <c r="E50" s="3">
-        <v>5</v>
-      </c>
-      <c r="F50" s="3">
-        <v>5</v>
-      </c>
-      <c r="G50" s="3">
-        <v>5</v>
-      </c>
-      <c r="H50" s="3">
+      <c r="C50" s="2">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2">
+        <v>5</v>
+      </c>
+      <c r="E50" s="2">
+        <v>5</v>
+      </c>
+      <c r="F50" s="2">
+        <v>5</v>
+      </c>
+      <c r="G50" s="2">
+        <v>5</v>
+      </c>
+      <c r="H50" s="2">
         <v>4</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
+      <c r="A51" s="9"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
+      <c r="A52" s="9"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
+      <c r="A53" s="9"/>
     </row>
     <row r="54" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A54" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="8" t="s">
+      <c r="A54" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>43179</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="8">
         <v>43182</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="8">
         <v>43187</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B55" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>10</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>2</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
+      <c r="A56" s="9"/>
       <c r="B56" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="3">
-        <v>5</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="C56" s="2">
+        <v>5</v>
+      </c>
+      <c r="D56" s="2">
         <v>2</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
+      <c r="A57" s="10"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
+      <c r="A58" s="10"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
+      <c r="A59" s="10"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B60" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="2">
         <v>10</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="2">
         <v>10</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
+      <c r="A61" s="9"/>
       <c r="B61" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="3">
-        <v>5</v>
-      </c>
-      <c r="D61" s="3">
-        <v>5</v>
-      </c>
-      <c r="E61" s="3">
+      <c r="C61" s="2">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2">
+        <v>5</v>
+      </c>
+      <c r="E61" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
+      <c r="A62" s="10"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
+      <c r="A63" s="10"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
+      <c r="A64" s="10"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="2">
+        <v>10</v>
+      </c>
+      <c r="D65" s="2">
+        <v>10</v>
+      </c>
+      <c r="E65" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="9"/>
+      <c r="B66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="2">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2">
+        <v>5</v>
+      </c>
+      <c r="E66" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="10"/>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="10"/>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="10"/>
+      <c r="B69" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A55:A59"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="A28:A33"/>
@@ -1454,11 +1508,6 @@
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A44:A48"/>
     <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
   <si>
     <t>User Story</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>As a user, I fill out the initial class setup form to instantiate a new class upon first access attempt</t>
+  </si>
+  <si>
+    <t>As a user, I can navigate the section menu and choose an assignment to navigate to</t>
+  </si>
+  <si>
+    <t>As a user, I can navigate the assignment menu that will display the grade if there is one and allows me to change the grade of the assignment.</t>
+  </si>
+  <si>
+    <t>As a user, I can navigate the menubar to navigate to different accessible parts of the system</t>
   </si>
 </sst>
 </file>
@@ -215,12 +224,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -237,6 +243,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -586,1434 +596,1881 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="O81" sqref="O81"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="V61" sqref="V61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.125"/>
     <col min="2" max="2" width="23.75"/>
-    <col min="3" max="3" width="12" style="3"/>
-    <col min="4" max="4" width="10.5" style="3"/>
-    <col min="5" max="5" width="12.125" style="3"/>
-    <col min="6" max="6" width="11.25" style="3"/>
+    <col min="3" max="3" width="12" style="2"/>
+    <col min="4" max="4" width="10.5" style="2"/>
+    <col min="5" max="5" width="12.125" style="2"/>
+    <col min="6" max="6" width="11.25" style="2"/>
     <col min="7" max="7" width="12.25"/>
     <col min="8" max="8" width="11.875"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>43146</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>43147</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>43148</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <v>43149</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+      <c r="A3" s="10"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>4</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>4</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>4</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="10"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+      <c r="A6" s="10"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+      <c r="A9" s="10"/>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="10"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+      <c r="A11" s="10"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="10"/>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="3">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+      <c r="A14" s="10"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+      <c r="A15" s="10"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+      <c r="A16" s="10"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>4</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+      <c r="A18" s="10"/>
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>2</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+      <c r="A19" s="10"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+      <c r="A20" s="10"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
+      <c r="A21" s="10"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
         <v>2</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
+      <c r="A23" s="10"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
+      <c r="A24" s="10"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+      <c r="A25" s="10"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
+      <c r="A26" s="10"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
     <row r="27" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>43154</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>43157</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>43160</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>43167</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>43177</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <v>43178</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>43178</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>12</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>11</v>
       </c>
-      <c r="E28" s="3">
-        <v>10</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="E28" s="2">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2">
         <v>2</v>
       </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3">
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
+      <c r="A29" s="10"/>
       <c r="B29" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>4</v>
       </c>
-      <c r="D29" s="3">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2">
         <v>1</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
+      <c r="A30" s="10"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
+      <c r="A31" s="10"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
+      <c r="A32" s="10"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
+      <c r="A33" s="10"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>15</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>15</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>15</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>15</v>
       </c>
-      <c r="G34" s="3">
-        <v>3</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
+      <c r="G34" s="2">
+        <v>3</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
+      <c r="A35" s="10"/>
       <c r="B35" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="3">
-        <v>5</v>
-      </c>
-      <c r="D35" s="3">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="C35" s="2">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2">
+        <v>5</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>5</v>
+      </c>
+      <c r="G35" s="2">
         <v>1</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
+      <c r="A36" s="10"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
+      <c r="A37" s="10"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
+      <c r="A38" s="10"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>15</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>15</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>15</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>15</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <v>13</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>8</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
+      <c r="A40" s="10"/>
       <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="3">
-        <v>5</v>
-      </c>
-      <c r="D40" s="3">
-        <v>5</v>
-      </c>
-      <c r="E40" s="3">
-        <v>5</v>
-      </c>
-      <c r="F40" s="3">
-        <v>5</v>
-      </c>
-      <c r="G40" s="3">
-        <v>5</v>
-      </c>
-      <c r="H40" s="3">
-        <v>3</v>
-      </c>
-      <c r="I40" s="3">
+      <c r="C40" s="2">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2">
+        <v>5</v>
+      </c>
+      <c r="F40" s="2">
+        <v>5</v>
+      </c>
+      <c r="G40" s="2">
+        <v>5</v>
+      </c>
+      <c r="H40" s="2">
+        <v>3</v>
+      </c>
+      <c r="I40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
+      <c r="A41" s="10"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
+      <c r="A42" s="10"/>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
+      <c r="A43" s="10"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>15</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>15</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>15</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>15</v>
       </c>
-      <c r="G44" s="3">
-        <v>10</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="G44" s="2">
+        <v>10</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
+      <c r="A45" s="10"/>
       <c r="B45" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="3">
-        <v>5</v>
-      </c>
-      <c r="D45" s="3">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="C45" s="2">
+        <v>5</v>
+      </c>
+      <c r="D45" s="2">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2">
+        <v>5</v>
+      </c>
+      <c r="F45" s="2">
+        <v>5</v>
+      </c>
+      <c r="G45" s="2">
+        <v>5</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
+      <c r="A46" s="10"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
+      <c r="A47" s="10"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
+      <c r="A48" s="10"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <v>15</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <v>15</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>15</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <v>15</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="2">
         <v>15</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="2">
         <v>11</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="10"/>
       <c r="B50" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="3">
-        <v>5</v>
-      </c>
-      <c r="D50" s="3">
-        <v>5</v>
-      </c>
-      <c r="E50" s="3">
-        <v>5</v>
-      </c>
-      <c r="F50" s="3">
-        <v>5</v>
-      </c>
-      <c r="G50" s="3">
-        <v>5</v>
-      </c>
-      <c r="H50" s="3">
+      <c r="C50" s="2">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2">
+        <v>5</v>
+      </c>
+      <c r="E50" s="2">
+        <v>5</v>
+      </c>
+      <c r="F50" s="2">
+        <v>5</v>
+      </c>
+      <c r="G50" s="2">
+        <v>5</v>
+      </c>
+      <c r="H50" s="2">
         <v>4</v>
       </c>
-      <c r="I50" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="10"/>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53"/>
     </row>
-    <row r="54" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A54" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="8" t="s">
+    <row r="54" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A54" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>43179</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="8">
         <v>43182</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="8">
         <v>43187</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="8">
         <v>43192</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="8">
         <v>43192</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="8">
         <v>43196</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="8">
         <v>43196</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+      <c r="J54" s="8">
+        <v>43197</v>
+      </c>
+      <c r="K54" s="8">
+        <v>43198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B55" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="3">
-        <v>10</v>
-      </c>
-      <c r="D55" s="3">
+      <c r="C55" s="2">
+        <v>10</v>
+      </c>
+      <c r="D55" s="2">
         <v>2</v>
       </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3">
-        <v>0</v>
-      </c>
-      <c r="H55" s="3">
-        <v>0</v>
-      </c>
-      <c r="I55" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="10"/>
       <c r="B56" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="3">
-        <v>5</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="C56" s="2">
+        <v>5</v>
+      </c>
+      <c r="D56" s="2">
         <v>2</v>
       </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0</v>
-      </c>
-      <c r="I56" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="10"/>
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="10"/>
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59"/>
-    </row>
-    <row r="60" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B60" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="3">
-        <v>10</v>
-      </c>
-      <c r="D60" s="3">
-        <v>10</v>
-      </c>
-      <c r="E60" s="3">
-        <v>4</v>
-      </c>
-      <c r="F60" s="3">
-        <v>4</v>
-      </c>
-      <c r="G60" s="3">
-        <v>4</v>
-      </c>
-      <c r="H60" s="3">
-        <v>4</v>
-      </c>
-      <c r="I60" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
+      <c r="C60" s="2">
+        <v>10</v>
+      </c>
+      <c r="D60" s="2">
+        <v>10</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="10"/>
       <c r="B61" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="3">
-        <v>5</v>
-      </c>
-      <c r="D61" s="3">
-        <v>5</v>
-      </c>
-      <c r="E61" s="3">
-        <v>3</v>
-      </c>
-      <c r="F61" s="3">
-        <v>3</v>
-      </c>
-      <c r="G61" s="3">
-        <v>3</v>
-      </c>
-      <c r="H61" s="3">
-        <v>3</v>
-      </c>
-      <c r="I61" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
+      <c r="C61" s="2">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2">
+        <v>5</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="10"/>
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="10"/>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="10"/>
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64"/>
-    </row>
-    <row r="65" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="3">
-        <v>10</v>
-      </c>
-      <c r="D65" s="3">
-        <v>10</v>
-      </c>
-      <c r="E65" s="3">
+      <c r="C65" s="2">
+        <v>10</v>
+      </c>
+      <c r="D65" s="2">
+        <v>10</v>
+      </c>
+      <c r="E65" s="2">
         <v>4</v>
       </c>
-      <c r="F65" s="3">
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0</v>
-      </c>
-      <c r="H65" s="3">
-        <v>0</v>
-      </c>
-      <c r="I65" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="10" t="s">
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="10"/>
+      <c r="B66" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="3">
-        <v>5</v>
-      </c>
-      <c r="D66" s="3">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
-      <c r="B67" s="10"/>
+      <c r="C66" s="2">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2">
+        <v>5</v>
+      </c>
+      <c r="E66" s="2">
+        <v>3</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="10"/>
+      <c r="B67" s="9"/>
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
-      <c r="B68" s="10"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="10"/>
+      <c r="B68" s="9"/>
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="10"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="10"/>
+      <c r="B69" s="9"/>
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="3">
-        <v>10</v>
-      </c>
-      <c r="D70" s="3">
-        <v>10</v>
-      </c>
-      <c r="E70" s="3">
-        <v>10</v>
-      </c>
-      <c r="F70" s="3">
-        <v>3</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="10" t="s">
+      <c r="C70" s="2">
+        <v>10</v>
+      </c>
+      <c r="D70" s="2">
+        <v>10</v>
+      </c>
+      <c r="E70" s="2">
+        <v>10</v>
+      </c>
+      <c r="F70" s="2">
+        <v>3</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="10"/>
+      <c r="B71" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="3">
-        <v>5</v>
-      </c>
-      <c r="D71" s="3">
-        <v>5</v>
-      </c>
-      <c r="E71" s="3">
-        <v>5</v>
-      </c>
-      <c r="F71" s="3">
+      <c r="C71" s="2">
+        <v>5</v>
+      </c>
+      <c r="D71" s="2">
+        <v>5</v>
+      </c>
+      <c r="E71" s="2">
+        <v>5</v>
+      </c>
+      <c r="F71" s="2">
         <v>1</v>
       </c>
-      <c r="G71" s="3">
-        <v>0</v>
-      </c>
-      <c r="H71" s="3">
-        <v>0</v>
-      </c>
-      <c r="I71" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
+      <c r="G71" s="2">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="10"/>
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="10"/>
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="10"/>
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74"/>
-    </row>
-    <row r="75" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="3">
-        <v>10</v>
-      </c>
-      <c r="D75" s="3">
-        <v>10</v>
-      </c>
-      <c r="E75" s="3">
-        <v>10</v>
-      </c>
-      <c r="F75" s="3">
-        <v>10</v>
-      </c>
-      <c r="G75" s="3">
+      <c r="C75" s="2">
+        <v>10</v>
+      </c>
+      <c r="D75" s="2">
+        <v>10</v>
+      </c>
+      <c r="E75" s="2">
+        <v>10</v>
+      </c>
+      <c r="F75" s="2">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2">
         <v>2</v>
       </c>
-      <c r="H75" s="3">
-        <v>0</v>
-      </c>
-      <c r="I75" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="10" t="s">
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="10"/>
+      <c r="B76" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="3">
-        <v>5</v>
-      </c>
-      <c r="D76" s="3">
-        <v>5</v>
-      </c>
-      <c r="E76" s="3">
-        <v>5</v>
-      </c>
-      <c r="F76" s="3">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="C76" s="2">
+        <v>5</v>
+      </c>
+      <c r="D76" s="2">
+        <v>5</v>
+      </c>
+      <c r="E76" s="2">
+        <v>5</v>
+      </c>
+      <c r="F76" s="2">
+        <v>5</v>
+      </c>
+      <c r="G76" s="2">
         <v>1</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="10"/>
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="10"/>
       <c r="C78"/>
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="10"/>
       <c r="C79"/>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79"/>
-    </row>
-    <row r="80" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C80" s="3">
-        <v>10</v>
-      </c>
-      <c r="D80" s="3">
-        <v>10</v>
-      </c>
-      <c r="E80" s="3">
-        <v>10</v>
-      </c>
-      <c r="F80" s="3">
-        <v>10</v>
-      </c>
-      <c r="G80" s="3">
-        <v>10</v>
-      </c>
-      <c r="H80" s="3">
+      <c r="C80" s="2">
+        <v>10</v>
+      </c>
+      <c r="D80" s="2">
+        <v>10</v>
+      </c>
+      <c r="E80" s="2">
+        <v>10</v>
+      </c>
+      <c r="F80" s="2">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2">
+        <v>10</v>
+      </c>
+      <c r="H80" s="2">
         <v>6</v>
       </c>
-      <c r="I80" s="3">
+      <c r="I80" s="2">
+        <v>2</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="10"/>
+      <c r="B81" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="2">
+        <v>5</v>
+      </c>
+      <c r="D81" s="2">
+        <v>5</v>
+      </c>
+      <c r="E81" s="2">
+        <v>5</v>
+      </c>
+      <c r="F81" s="2">
+        <v>5</v>
+      </c>
+      <c r="G81" s="2">
+        <v>5</v>
+      </c>
+      <c r="H81" s="2">
+        <v>3</v>
+      </c>
+      <c r="I81" s="2">
+        <v>1</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0</v>
+      </c>
+      <c r="K81" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="11"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="11"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="11"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="2">
+        <v>10</v>
+      </c>
+      <c r="D85" s="2">
+        <v>10</v>
+      </c>
+      <c r="E85" s="2">
+        <v>10</v>
+      </c>
+      <c r="F85" s="2">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2">
+        <v>10</v>
+      </c>
+      <c r="H85" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
-      <c r="B81" s="10" t="s">
+      <c r="I85" s="2">
+        <v>2</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0</v>
+      </c>
+      <c r="K85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="10"/>
+      <c r="B86" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="3">
-        <v>5</v>
-      </c>
-      <c r="D81" s="3">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" s="10" t="s">
+      <c r="C86" s="2">
+        <v>5</v>
+      </c>
+      <c r="D86" s="2">
+        <v>5</v>
+      </c>
+      <c r="E86" s="2">
+        <v>5</v>
+      </c>
+      <c r="F86" s="2">
+        <v>5</v>
+      </c>
+      <c r="G86" s="2">
+        <v>5</v>
+      </c>
+      <c r="H86" s="2">
+        <v>3</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="11"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="11"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="11"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C85" s="3">
-        <v>10</v>
-      </c>
-      <c r="D85" s="3">
-        <v>10</v>
-      </c>
-      <c r="E85" s="3">
-        <v>10</v>
-      </c>
-      <c r="F85" s="3">
-        <v>10</v>
-      </c>
-      <c r="G85" s="3">
-        <v>10</v>
-      </c>
-      <c r="H85" s="3">
-        <v>6</v>
-      </c>
-      <c r="I85" s="3">
+      <c r="C90" s="2">
+        <v>8</v>
+      </c>
+      <c r="D90" s="2">
+        <v>8</v>
+      </c>
+      <c r="E90" s="2">
+        <v>8</v>
+      </c>
+      <c r="F90" s="2">
+        <v>8</v>
+      </c>
+      <c r="G90" s="2">
+        <v>8</v>
+      </c>
+      <c r="H90" s="2">
+        <v>8</v>
+      </c>
+      <c r="I90" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="2"/>
-      <c r="B86" s="10" t="s">
+      <c r="J90" s="2">
+        <v>0</v>
+      </c>
+      <c r="K90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="10"/>
+      <c r="B91" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="3">
-        <v>5</v>
-      </c>
-      <c r="D86" s="3">
-        <v>5</v>
-      </c>
-      <c r="E86" s="3">
-        <v>5</v>
-      </c>
-      <c r="F86" s="3">
-        <v>5</v>
-      </c>
-      <c r="G86" s="3">
-        <v>5</v>
-      </c>
-      <c r="H86" s="3">
-        <v>3</v>
-      </c>
-      <c r="I86" s="3">
+      <c r="C91" s="2">
+        <v>3</v>
+      </c>
+      <c r="D91" s="2">
+        <v>3</v>
+      </c>
+      <c r="E91" s="2">
+        <v>3</v>
+      </c>
+      <c r="F91" s="2">
+        <v>3</v>
+      </c>
+      <c r="G91" s="2">
+        <v>3</v>
+      </c>
+      <c r="H91" s="2">
+        <v>3</v>
+      </c>
+      <c r="I91" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B90" s="10" t="s">
+      <c r="J91" s="2">
+        <v>0</v>
+      </c>
+      <c r="K91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="11"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="11"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="11"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C95" s="2">
         <v>8</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D95" s="2">
         <v>8</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E95" s="2">
         <v>8</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F95" s="2">
         <v>8</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G95" s="2">
         <v>8</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H95" s="2">
         <v>8</v>
       </c>
-      <c r="I90" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
-      <c r="B91" s="10" t="s">
+      <c r="I95" s="2">
+        <v>8</v>
+      </c>
+      <c r="J95" s="2">
+        <v>2</v>
+      </c>
+      <c r="K95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="10"/>
+      <c r="B96" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="3">
-        <v>3</v>
-      </c>
-      <c r="D91" s="3">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
+      <c r="C96" s="2">
+        <v>3</v>
+      </c>
+      <c r="D96" s="2">
+        <v>3</v>
+      </c>
+      <c r="E96" s="2">
+        <v>3</v>
+      </c>
+      <c r="F96" s="2">
+        <v>3</v>
+      </c>
+      <c r="G96" s="2">
+        <v>3</v>
+      </c>
+      <c r="H96" s="2">
+        <v>3</v>
+      </c>
+      <c r="I96" s="2">
+        <v>3</v>
+      </c>
+      <c r="J96" s="2">
+        <v>1</v>
+      </c>
+      <c r="K96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="11"/>
+      <c r="B97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="11"/>
+      <c r="B98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="11"/>
+      <c r="B99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="2">
+        <v>8</v>
+      </c>
+      <c r="D100" s="2">
+        <v>8</v>
+      </c>
+      <c r="E100" s="2">
+        <v>8</v>
+      </c>
+      <c r="F100" s="2">
+        <v>8</v>
+      </c>
+      <c r="G100" s="2">
+        <v>8</v>
+      </c>
+      <c r="H100" s="2">
+        <v>8</v>
+      </c>
+      <c r="I100" s="2">
+        <v>8</v>
+      </c>
+      <c r="J100" s="2">
+        <v>2</v>
+      </c>
+      <c r="K100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="10"/>
+      <c r="B101" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="2">
+        <v>3</v>
+      </c>
+      <c r="D101" s="2">
+        <v>3</v>
+      </c>
+      <c r="E101" s="2">
+        <v>3</v>
+      </c>
+      <c r="F101" s="2">
+        <v>3</v>
+      </c>
+      <c r="G101" s="2">
+        <v>3</v>
+      </c>
+      <c r="H101" s="2">
+        <v>3</v>
+      </c>
+      <c r="I101" s="2">
+        <v>3</v>
+      </c>
+      <c r="J101" s="2">
+        <v>1</v>
+      </c>
+      <c r="K101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="11"/>
+      <c r="B102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="11"/>
+      <c r="B103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="11"/>
+      <c r="B104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="2">
+        <v>4</v>
+      </c>
+      <c r="D105" s="2">
+        <v>4</v>
+      </c>
+      <c r="E105" s="2">
+        <v>4</v>
+      </c>
+      <c r="F105" s="2">
+        <v>4</v>
+      </c>
+      <c r="G105" s="2">
+        <v>4</v>
+      </c>
+      <c r="H105" s="2">
+        <v>4</v>
+      </c>
+      <c r="I105" s="2">
+        <v>4</v>
+      </c>
+      <c r="J105" s="2">
+        <v>4</v>
+      </c>
+      <c r="K105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="10"/>
+      <c r="B106" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="2">
+        <v>2</v>
+      </c>
+      <c r="D106" s="2">
+        <v>2</v>
+      </c>
+      <c r="E106" s="2">
+        <v>2</v>
+      </c>
+      <c r="F106" s="2">
+        <v>2</v>
+      </c>
+      <c r="G106" s="2">
+        <v>2</v>
+      </c>
+      <c r="H106" s="2">
+        <v>2</v>
+      </c>
+      <c r="I106" s="2">
+        <v>2</v>
+      </c>
+      <c r="J106" s="2">
+        <v>2</v>
+      </c>
+      <c r="K106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="11"/>
+      <c r="B107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="11"/>
+      <c r="B108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="11"/>
+      <c r="B109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="21">
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A49:A53"/>
     <mergeCell ref="A80:A84"/>
     <mergeCell ref="A85:A89"/>
     <mergeCell ref="A90:A94"/>
@@ -2022,16 +2479,6 @@
     <mergeCell ref="A65:A69"/>
     <mergeCell ref="A70:A74"/>
     <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
